--- a/documents/系统测试缺陷 彭钧涛 李尚真 郭源杰.xlsx
+++ b/documents/系统测试缺陷 彭钧涛 李尚真 郭源杰.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\软件测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juntao Peng\Desktop\Software Testing\project\MeetHere\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52860DC4-CC84-4EB9-8133-7DB36806040A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6876"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="15390" windowHeight="9532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="缺陷报告" sheetId="1" r:id="rId1"/>
@@ -141,19 +142,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -161,7 +162,7 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -193,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -481,22 +482,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="47.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.265625" customWidth="1"/>
+    <col min="6" max="7" width="47.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -528,7 +529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -557,7 +558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -589,7 +590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>26</v>
       </c>
